--- a/data.xlsx
+++ b/data.xlsx
@@ -2,7 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\pycharm_project\复习\办公自动化\openpyxl_tutorial\cabins\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
@@ -10,75 +15,51 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>server_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>cabin_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>u_position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>taishan1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>taishan1.1</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>taishan3</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>taishan5</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
   <si>
     <t>taishan2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>s1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>taishan3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>taishan5</t>
+    <t>taishan2.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -404,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -432,42 +413,64 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
       <c r="C3">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
         <v>43</v>
       </c>
     </row>
@@ -483,7 +486,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -494,10 +497,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -507,9 +510,6 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
       <c r="D2">
         <v>1</v>
       </c>
@@ -518,9 +518,6 @@
       </c>
       <c r="F2">
         <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -533,9 +530,6 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
       <c r="D3">
         <v>1</v>
       </c>
@@ -545,19 +539,16 @@
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
       <c r="H3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
         <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -567,9 +558,6 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
       <c r="D5">
         <v>1</v>
       </c>
@@ -578,9 +566,6 @@
       </c>
       <c r="F5">
         <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>7</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -593,9 +578,6 @@
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
       <c r="D6">
         <v>1</v>
       </c>
@@ -604,9 +586,6 @@
       </c>
       <c r="F6">
         <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>8</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -615,6 +594,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>